--- a/tree/datasets/nfrs.xlsx
+++ b/tree/datasets/nfrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/tree/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC7CF5-063C-B24F-BA88-82DE53500957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872A0BDF-5D04-3340-BE15-5B5890E7ED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="2" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Descr</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -225,10 +222,13 @@
     <t>Quality Criterion</t>
   </si>
   <si>
-    <t>ParentId</t>
-  </si>
-  <si>
-    <t>ChildId</t>
+    <t>childId</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>childLabel</t>
   </si>
 </sst>
 </file>
@@ -297,9 +297,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C50" totalsRowShown="0">
   <autoFilter ref="A1:C50" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ChildId" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ParentId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Descr"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="childId" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="parentId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="childLabel"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -618,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -628,402 +628,402 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1062,28 +1062,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -1091,394 +1091,394 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
